--- a/data/trans_media/Q02G_FES-Edad-trans_media.xlsx
+++ b/data/trans_media/Q02G_FES-Edad-trans_media.xlsx
@@ -554,7 +554,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -644,7 +644,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,23; 4,77</t>
+          <t>2,14; 4,88</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -654,7 +654,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,75; 10,21</t>
+          <t>1,52; 10,2</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,54; 7,43</t>
+          <t>2,42; 6,82</t>
         </is>
       </c>
     </row>
@@ -719,32 +719,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,75; 5,62</t>
+          <t>1,59; 5,68</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,04; 12,81</t>
+          <t>1,05; 12,91</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,51; 3,76</t>
+          <t>1,54; 3,75</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,07; 5,46</t>
+          <t>2,02; 5,47</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,9; 4,47</t>
+          <t>1,99; 4,48</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,97; 7,08</t>
+          <t>2,11; 7,04</t>
         </is>
       </c>
     </row>
@@ -799,27 +799,27 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,99; 2,58</t>
+          <t>0,99; 2,53</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,27; 5,29</t>
+          <t>1,26; 5,12</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,65; 4,86</t>
+          <t>2,7; 4,9</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,12; 4,83</t>
+          <t>2,18; 4,91</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,5; 4,37</t>
+          <t>2,5; 4,52</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -879,32 +879,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,45; 7,32</t>
+          <t>3,45; 7,09</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,17; 6,9</t>
+          <t>2,23; 6,99</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,43; 5,56</t>
+          <t>3,47; 5,67</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,86; 5,72</t>
+          <t>2,93; 5,76</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,55; 5,5</t>
+          <t>3,55; 5,54</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>3,0; 5,35</t>
+          <t>2,96; 5,32</t>
         </is>
       </c>
     </row>
@@ -964,27 +964,27 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,54; 10,21</t>
+          <t>2,59; 9,71</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,38; 6,33</t>
+          <t>2,43; 6,13</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>3,64; 8,46</t>
+          <t>3,57; 8,43</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,2; 5,17</t>
+          <t>2,21; 5,15</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>3,63; 7,28</t>
+          <t>3,66; 7,37</t>
         </is>
       </c>
     </row>
@@ -1039,32 +1039,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,21; 8,98</t>
+          <t>2,18; 7,54</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,39; 5,06</t>
+          <t>1,45; 5,07</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,06; 3,93</t>
+          <t>1,16; 4,07</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,9; 5,8</t>
+          <t>1,93; 5,28</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>1,89; 4,88</t>
+          <t>1,77; 4,42</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>2,22; 4,99</t>
+          <t>2,06; 4,88</t>
         </is>
       </c>
     </row>
@@ -1119,32 +1119,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,38; 4,22</t>
+          <t>2,38; 4,29</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,73; 5,43</t>
+          <t>2,79; 5,44</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,2; 4,39</t>
+          <t>3,19; 4,48</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>3,29; 4,92</t>
+          <t>3,37; 5,09</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>3,1; 4,17</t>
+          <t>3,15; 4,22</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>3,4; 4,83</t>
+          <t>3,28; 4,72</t>
         </is>
       </c>
     </row>
